--- a/rhla_analysis/rhla1_6_exp_result/k0.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k0.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009090829478524904</v>
+        <v>0.009191487467905202</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1433213984255647</v>
+        <v>0.1423131463982435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1206308610400682</v>
+        <v>0.06890699253224712</v>
       </c>
       <c r="D2" t="n">
-        <v>15.76549189093583</v>
+        <v>15.48314643251943</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01102810597135825</v>
+        <v>0.01136979050790722</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08258495920929534</v>
+        <v>0.08325372296850329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1248934356351236</v>
+        <v>0.08214528173794976</v>
       </c>
       <c r="D3" t="n">
-        <v>7.488589556881449</v>
+        <v>7.322362088431073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03789616774699973</v>
+        <v>0.03767314848603209</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1877396463722024</v>
+        <v>0.1886947114422591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1287297527706735</v>
+        <v>0.07705363204344874</v>
       </c>
       <c r="D4" t="n">
-        <v>4.954053603139487</v>
+        <v>5.008732187919485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006100248407657082</v>
+        <v>0.005724274297767936</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1311817954253889</v>
+        <v>0.1307811629025931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1082693947144075</v>
+        <v>0.06653088934147998</v>
       </c>
       <c r="D5" t="n">
-        <v>21.50433665303342</v>
+        <v>22.84676731050232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01307057472590529</v>
+        <v>0.01238058339905777</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2561281103814395</v>
+        <v>0.2555885666420524</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1253196930946291</v>
+        <v>0.07196198234894773</v>
       </c>
       <c r="D6" t="n">
-        <v>19.59578027382417</v>
+        <v>20.64430717065433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.009134627485321446</v>
+        <v>0.009627718909081807</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1364757221769919</v>
+        <v>0.1368987392975493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1227621483375959</v>
+        <v>0.07128309572301425</v>
       </c>
       <c r="D7" t="n">
-        <v>14.94048032022067</v>
+        <v>14.21922893577761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01433460910470345</v>
+        <v>0.01507996226365719</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2080460385712626</v>
+        <v>0.206316285830718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1274509803921569</v>
+        <v>0.07976917854718261</v>
       </c>
       <c r="D8" t="n">
-        <v>14.51354808852086</v>
+        <v>13.68148555172062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.009085328121348444</v>
+        <v>0.009257164078370839</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2105556833751113</v>
+        <v>0.2116112876775594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.118073316283035</v>
+        <v>0.07128309572301425</v>
       </c>
       <c r="D9" t="n">
-        <v>23.1753526744239</v>
+        <v>22.85919163645208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01811163513066504</v>
+        <v>0.01788159992944413</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1172506325981558</v>
+        <v>0.1164567411828803</v>
       </c>
       <c r="C10" t="n">
-        <v>0.113384484228474</v>
+        <v>0.05804480651731161</v>
       </c>
       <c r="D10" t="n">
-        <v>6.473773999545589</v>
+        <v>6.512657795856438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.008595388805447508</v>
+        <v>0.008682226108083578</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1470729925645991</v>
+        <v>0.1462673812264935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1329923273657289</v>
+        <v>0.08010862186014936</v>
       </c>
       <c r="D11" t="n">
-        <v>17.1106852631714</v>
+        <v>16.84676019786117</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k0.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k0.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009191487467905202</v>
+        <v>0.009191487467905166</v>
       </c>
       <c r="B2" t="n">
         <v>0.1423131463982435</v>
@@ -466,12 +466,12 @@
         <v>0.06890699253224712</v>
       </c>
       <c r="D2" t="n">
-        <v>15.48314643251943</v>
+        <v>15.4831464325195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01136979050790722</v>
+        <v>0.01136979050790725</v>
       </c>
       <c r="B3" t="n">
         <v>0.08325372296850329</v>
@@ -480,26 +480,26 @@
         <v>0.08214528173794976</v>
       </c>
       <c r="D3" t="n">
-        <v>7.322362088431073</v>
+        <v>7.322362088431053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03767314848603209</v>
+        <v>0.037673148486032</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1886947114422591</v>
+        <v>0.188694711442259</v>
       </c>
       <c r="C4" t="n">
         <v>0.07705363204344874</v>
       </c>
       <c r="D4" t="n">
-        <v>5.008732187919485</v>
+        <v>5.008732187919493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.005724274297767936</v>
+        <v>0.005724274297767925</v>
       </c>
       <c r="B5" t="n">
         <v>0.1307811629025931</v>
@@ -508,12 +508,12 @@
         <v>0.06653088934147998</v>
       </c>
       <c r="D5" t="n">
-        <v>22.84676731050232</v>
+        <v>22.84676731050236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01238058339905777</v>
+        <v>0.0123805833990578</v>
       </c>
       <c r="B6" t="n">
         <v>0.2555885666420524</v>
@@ -522,7 +522,7 @@
         <v>0.07196198234894773</v>
       </c>
       <c r="D6" t="n">
-        <v>20.64430717065433</v>
+        <v>20.64430717065429</v>
       </c>
     </row>
     <row r="7">
@@ -530,7 +530,7 @@
         <v>0.009627718909081807</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1368987392975493</v>
+        <v>0.1368987392975492</v>
       </c>
       <c r="C7" t="n">
         <v>0.07128309572301425</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01507996226365719</v>
+        <v>0.01507996226365717</v>
       </c>
       <c r="B8" t="n">
         <v>0.206316285830718</v>
@@ -550,12 +550,12 @@
         <v>0.07976917854718261</v>
       </c>
       <c r="D8" t="n">
-        <v>13.68148555172062</v>
+        <v>13.68148555172063</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.009257164078370839</v>
+        <v>0.009257164078370881</v>
       </c>
       <c r="B9" t="n">
         <v>0.2116112876775594</v>
@@ -564,12 +564,12 @@
         <v>0.07128309572301425</v>
       </c>
       <c r="D9" t="n">
-        <v>22.85919163645208</v>
+        <v>22.85919163645198</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01788159992944413</v>
+        <v>0.01788159992944398</v>
       </c>
       <c r="B10" t="n">
         <v>0.1164567411828803</v>
@@ -578,12 +578,12 @@
         <v>0.05804480651731161</v>
       </c>
       <c r="D10" t="n">
-        <v>6.512657795856438</v>
+        <v>6.512657795856494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.008682226108083578</v>
+        <v>0.008682226108083614</v>
       </c>
       <c r="B11" t="n">
         <v>0.1462673812264935</v>
@@ -592,7 +592,7 @@
         <v>0.08010862186014936</v>
       </c>
       <c r="D11" t="n">
-        <v>16.84676019786117</v>
+        <v>16.8467601978611</v>
       </c>
     </row>
   </sheetData>
